--- a/costearn/林总.xlsx
+++ b/costearn/林总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>日期</t>
   </si>
@@ -210,16 +210,19 @@
   <si>
     <t>朝鲜U20+0.5</t>
   </si>
+  <si>
+    <t>特普雷达不败</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -658,10 +661,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -727,15 +730,15 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:I2" si="1">SUM(D:D)</f>
-        <v>22112</v>
+        <v>22612</v>
       </c>
       <c r="H2" s="1">
         <f>SUM(E:E)</f>
-        <v>21988.01</v>
+        <v>22821.35</v>
       </c>
       <c r="I2" s="6">
         <f>SUM(F:F)</f>
-        <v>-123.99</v>
+        <v>209.35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1638,6 +1641,27 @@
       <c r="F45" s="7">
         <f>E45-D45</f>
         <v>-555</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="9">
+        <v>42158</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1.66</v>
+      </c>
+      <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>833.34</v>
+      </c>
+      <c r="F46" s="6">
+        <f>E46-D46</f>
+        <v>333.34</v>
       </c>
     </row>
   </sheetData>

--- a/costearn/林总.xlsx
+++ b/costearn/林总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>日期</t>
   </si>
@@ -213,16 +213,19 @@
   <si>
     <t>特普雷达不败</t>
   </si>
+  <si>
+    <t>布兰不败</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -661,10 +664,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -730,15 +733,15 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:I2" si="1">SUM(D:D)</f>
-        <v>22612</v>
+        <v>23112</v>
       </c>
       <c r="H2" s="1">
         <f>SUM(E:E)</f>
-        <v>22821.35</v>
+        <v>23531.35</v>
       </c>
       <c r="I2" s="6">
         <f>SUM(F:F)</f>
-        <v>209.35</v>
+        <v>419.35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -904,7 +907,7 @@
         <v>937.5</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:F45" si="3">E10-D10</f>
+        <f t="shared" ref="F10:F46" si="3">E10-D10</f>
         <v>437.5</v>
       </c>
     </row>
@@ -1662,6 +1665,27 @@
       <c r="F46" s="6">
         <f>E46-D46</f>
         <v>333.34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="9">
+        <v>42159</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="D47" s="3">
+        <v>500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>710</v>
+      </c>
+      <c r="F47" s="6">
+        <f>E47-D47</f>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/costearn/林总.xlsx
+++ b/costearn/林总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>日期</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>布兰不败</t>
+  </si>
+  <si>
+    <t>科林蒂安 0</t>
+  </si>
+  <si>
+    <t>卡马尔不败</t>
   </si>
 </sst>
 </file>
@@ -664,10 +670,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -733,15 +739,15 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:I2" si="1">SUM(D:D)</f>
-        <v>23112</v>
+        <v>24212</v>
       </c>
       <c r="H2" s="1">
         <f>SUM(E:E)</f>
-        <v>23531.35</v>
+        <v>25305.22</v>
       </c>
       <c r="I2" s="6">
         <f>SUM(F:F)</f>
-        <v>419.35</v>
+        <v>1093.22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -907,7 +913,7 @@
         <v>937.5</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:F46" si="3">E10-D10</f>
+        <f t="shared" ref="F10:F48" si="3">E10-D10</f>
         <v>437.5</v>
       </c>
     </row>
@@ -1687,6 +1693,51 @@
         <f>E47-D47</f>
         <v>210</v>
       </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="9">
+        <v>42162</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1.475</v>
+      </c>
+      <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>737.5</v>
+      </c>
+      <c r="F48" s="6">
+        <f>E48-D48</f>
+        <v>237.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="9">
+        <v>42162</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1036.37</v>
+      </c>
+      <c r="F49" s="6">
+        <f>E49-D49</f>
+        <v>436.37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/costearn/林总.xlsx
+++ b/costearn/林总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370"/>
+    <workbookView windowWidth="20370" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>日期</t>
   </si>
@@ -222,16 +222,22 @@
   <si>
     <t>卡马尔不败</t>
   </si>
+  <si>
+    <t>哥伦比亚U20 0</t>
+  </si>
+  <si>
+    <t>意大利不败</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -670,10 +676,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -739,15 +745,15 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:I2" si="1">SUM(D:D)</f>
-        <v>24212</v>
+        <v>25212</v>
       </c>
       <c r="H2" s="1">
         <f>SUM(E:E)</f>
-        <v>25305.22</v>
+        <v>26071.89</v>
       </c>
       <c r="I2" s="6">
         <f>SUM(F:F)</f>
-        <v>1093.22</v>
+        <v>859.89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -913,7 +919,7 @@
         <v>937.5</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:F48" si="3">E10-D10</f>
+        <f t="shared" ref="F10:F50" si="3">E10-D10</f>
         <v>437.5</v>
       </c>
     </row>
@@ -1736,8 +1742,47 @@
         <v>436.37</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="9"/>
+    <row r="50" spans="1:6">
+      <c r="A50" s="9">
+        <v>42165</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1.475</v>
+      </c>
+      <c r="D50" s="3">
+        <v>500</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <f>E50-D50</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="9">
+        <v>42167</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="D51" s="3">
+        <v>500</v>
+      </c>
+      <c r="E51" s="3">
+        <v>766.67</v>
+      </c>
+      <c r="F51" s="6">
+        <f>E51-D51</f>
+        <v>266.67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/costearn/林总.xlsx
+++ b/costearn/林总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>日期</t>
   </si>
@@ -228,6 +228,12 @@
   <si>
     <t>意大利不败</t>
   </si>
+  <si>
+    <t>弗拉门戈不败</t>
+  </si>
+  <si>
+    <t>长崎成功丸+0.5</t>
+  </si>
 </sst>
 </file>
 
@@ -235,9 +241,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -676,10 +682,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -745,15 +751,15 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:I2" si="1">SUM(D:D)</f>
-        <v>25212</v>
+        <v>26212</v>
       </c>
       <c r="H2" s="1">
         <f>SUM(E:E)</f>
-        <v>26071.89</v>
+        <v>26821.89</v>
       </c>
       <c r="I2" s="6">
         <f>SUM(F:F)</f>
-        <v>859.89</v>
+        <v>609.89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -919,7 +925,7 @@
         <v>937.5</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:F50" si="3">E10-D10</f>
+        <f t="shared" ref="F10:F51" si="3">E10-D10</f>
         <v>437.5</v>
       </c>
     </row>
@@ -1782,6 +1788,48 @@
       <c r="F51" s="6">
         <f>E51-D51</f>
         <v>266.67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="9">
+        <v>42168</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>750</v>
+      </c>
+      <c r="F52" s="6">
+        <f>E52-D52</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="9">
+        <v>42169</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="D53" s="3">
+        <v>500</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <f>E53-D53</f>
+        <v>-500</v>
       </c>
     </row>
   </sheetData>

--- a/costearn/林总.xlsx
+++ b/costearn/林总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>日期</t>
   </si>
@@ -234,6 +234,9 @@
   <si>
     <t>长崎成功丸+0.5</t>
   </si>
+  <si>
+    <t>意大利 0</t>
+  </si>
 </sst>
 </file>
 
@@ -241,9 +244,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -682,10 +685,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -751,7 +754,7 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:I2" si="1">SUM(D:D)</f>
-        <v>26212</v>
+        <v>26712</v>
       </c>
       <c r="H2" s="1">
         <f>SUM(E:E)</f>
@@ -759,7 +762,7 @@
       </c>
       <c r="I2" s="6">
         <f>SUM(F:F)</f>
-        <v>609.89</v>
+        <v>109.89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -925,7 +928,7 @@
         <v>937.5</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:F51" si="3">E10-D10</f>
+        <f t="shared" ref="F10:F53" si="3">E10-D10</f>
         <v>437.5</v>
       </c>
     </row>
@@ -1829,6 +1832,26 @@
       </c>
       <c r="F53" s="7">
         <f>E53-D53</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="9">
+        <v>42171</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/costearn/林总.xlsx
+++ b/costearn/林总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>日期</t>
   </si>
@@ -237,16 +237,19 @@
   <si>
     <t>意大利 0</t>
   </si>
+  <si>
+    <t>费古伦斯不败</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -685,10 +688,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -754,15 +757,15 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:I2" si="1">SUM(D:D)</f>
-        <v>26712</v>
+        <v>27212</v>
       </c>
       <c r="H2" s="1">
         <f>SUM(E:E)</f>
-        <v>26821.89</v>
+        <v>27596.89</v>
       </c>
       <c r="I2" s="6">
         <f>SUM(F:F)</f>
-        <v>109.89</v>
+        <v>384.89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1851,8 +1854,120 @@
       <c r="E54" s="3">
         <v>0</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="7">
+        <f t="shared" ref="F54:F70" si="4">E54-D54</f>
         <v>-500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="9">
+        <v>42174</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="D55" s="3">
+        <v>500</v>
+      </c>
+      <c r="E55" s="3">
+        <v>775</v>
+      </c>
+      <c r="F55" s="6">
+        <f>E55-D55</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="7">
+        <f>E56-D56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="7">
+        <f>E57-D57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" s="7">
+        <f>E58-D58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" s="7">
+        <f>E59-D59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" s="7">
+        <f>E60-D60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" s="7">
+        <f>E61-D61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62" s="7">
+        <f>E62-D62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" s="7">
+        <f>E63-D63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" s="7">
+        <f>E64-D64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="7">
+        <f>E65-D65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="7">
+        <f>E66-D66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="7">
+        <f>E67-D67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="7">
+        <f>E68-D68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="7">
+        <f>E69-D69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" s="7">
+        <f>E70-D70</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/costearn/林总.xlsx
+++ b/costearn/林总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>日期</t>
   </si>
@@ -240,16 +240,25 @@
   <si>
     <t>费古伦斯不败</t>
   </si>
+  <si>
+    <t>科林蒂安不败</t>
+  </si>
+  <si>
+    <t>千叶市原0</t>
+  </si>
+  <si>
+    <t>日本女子 独赢</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -690,8 +699,8 @@
   <sheetPr/>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -757,15 +766,15 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:I2" si="1">SUM(D:D)</f>
-        <v>27212</v>
+        <v>28732</v>
       </c>
       <c r="H2" s="1">
         <f>SUM(E:E)</f>
-        <v>27596.89</v>
+        <v>29209.39</v>
       </c>
       <c r="I2" s="6">
         <f>SUM(F:F)</f>
-        <v>384.89</v>
+        <v>477.39</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1880,22 +1889,67 @@
         <v>275</v>
       </c>
     </row>
-    <row r="56" spans="6:6">
+    <row r="56" spans="1:6">
+      <c r="A56" s="9">
+        <v>42175</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="D56" s="3">
+        <v>520</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
       <c r="F56" s="7">
         <f>E56-D56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="6:6">
-      <c r="F57" s="7">
+        <v>-520</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="9">
+        <v>42176</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1.475</v>
+      </c>
+      <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>737.5</v>
+      </c>
+      <c r="F57" s="6">
         <f>E57-D57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="6:6">
-      <c r="F58" s="7">
+        <v>237.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="9">
+        <v>42179</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>875</v>
+      </c>
+      <c r="F58" s="6">
         <f>E58-D58</f>
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="6:6">

--- a/costearn/林总.xlsx
+++ b/costearn/林总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>日期</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>日本女子 独赢</t>
+  </si>
+  <si>
+    <t>英格兰 不败</t>
+  </si>
+  <si>
+    <t>奥勒松不败</t>
   </si>
 </sst>
 </file>
@@ -700,7 +706,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -766,7 +772,7 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:I2" si="1">SUM(D:D)</f>
-        <v>28732</v>
+        <v>29732</v>
       </c>
       <c r="H2" s="1">
         <f>SUM(E:E)</f>
@@ -774,7 +780,7 @@
       </c>
       <c r="I2" s="6">
         <f>SUM(F:F)</f>
-        <v>477.39</v>
+        <v>-522.61</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1952,16 +1958,46 @@
         <v>375</v>
       </c>
     </row>
-    <row r="59" spans="6:6">
+    <row r="59" spans="1:6">
+      <c r="A59" s="9">
+        <v>42179</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
       <c r="F59" s="7">
         <f>E59-D59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="6:6">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="9">
+        <v>42182</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
       <c r="F60" s="7">
         <f>E60-D60</f>
-        <v>0</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="61" spans="6:6">

--- a/costearn/林总.xlsx
+++ b/costearn/林总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>日期</t>
   </si>
@@ -253,7 +253,16 @@
     <t>英格兰 不败</t>
   </si>
   <si>
-    <t>奥勒松不败</t>
+    <t>阿利辛特不败</t>
+  </si>
+  <si>
+    <t>弗拉门戈 0</t>
+  </si>
+  <si>
+    <t>帕尔梅拉斯独赢</t>
+  </si>
+  <si>
+    <t>冈山锥鸡+0.5</t>
   </si>
 </sst>
 </file>
@@ -703,10 +712,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -772,15 +781,15 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:I2" si="1">SUM(D:D)</f>
-        <v>29732</v>
+        <v>31252</v>
       </c>
       <c r="H2" s="1">
         <f>SUM(E:E)</f>
-        <v>29209.39</v>
+        <v>30785.53</v>
       </c>
       <c r="I2" s="6">
         <f>SUM(F:F)</f>
-        <v>-522.61</v>
+        <v>-466.47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -946,7 +955,7 @@
         <v>937.5</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:F53" si="3">E10-D10</f>
+        <f t="shared" ref="F10:F59" si="3">E10-D10</f>
         <v>437.5</v>
       </c>
     </row>
@@ -1870,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" ref="F54:F70" si="4">E54-D54</f>
+        <f>E54-D54</f>
         <v>-500</v>
       </c>
     </row>
@@ -1996,26 +2005,71 @@
         <v>0</v>
       </c>
       <c r="F60" s="7">
-        <f>E60-D60</f>
+        <f t="shared" ref="F60:F69" si="4">E60-D60</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="61" spans="6:6">
+    <row r="61" spans="1:6">
+      <c r="A61" s="9">
+        <v>42183</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="D61" s="3">
+        <v>520</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
       <c r="F61" s="7">
         <f>E61-D61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="6:6">
-      <c r="F62" s="7">
+        <v>-520</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="9">
+        <v>42187</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>863.64</v>
+      </c>
+      <c r="F62" s="6">
         <f>E62-D62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="6:6">
-      <c r="F63" s="7">
+        <v>363.64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="9">
+        <v>42185</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1.425</v>
+      </c>
+      <c r="D63" s="3">
+        <v>500</v>
+      </c>
+      <c r="E63" s="3">
+        <v>712.5</v>
+      </c>
+      <c r="F63" s="6">
         <f>E63-D63</f>
-        <v>0</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="64" spans="6:6">
@@ -2051,12 +2105,6 @@
     <row r="69" spans="6:6">
       <c r="F69" s="7">
         <f>E69-D69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="6:6">
-      <c r="F70" s="7">
-        <f>E70-D70</f>
         <v>0</v>
       </c>
     </row>

--- a/costearn/林总.xlsx
+++ b/costearn/林总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>日期</t>
   </si>
@@ -264,6 +264,9 @@
   <si>
     <t>冈山锥鸡+0.5</t>
   </si>
+  <si>
+    <t>东京绿茵+0.5</t>
+  </si>
 </sst>
 </file>
 
@@ -271,9 +274,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -715,7 +718,7 @@
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -781,15 +784,15 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:I2" si="1">SUM(D:D)</f>
-        <v>31252</v>
+        <v>32252</v>
       </c>
       <c r="H2" s="1">
         <f>SUM(E:E)</f>
-        <v>30785.53</v>
+        <v>31510.53</v>
       </c>
       <c r="I2" s="6">
         <f>SUM(F:F)</f>
-        <v>-466.47</v>
+        <v>-741.47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2072,16 +2075,40 @@
         <v>212.5</v>
       </c>
     </row>
-    <row r="64" spans="6:6">
-      <c r="F64" s="7">
+    <row r="64" spans="1:6">
+      <c r="A64" s="9">
+        <v>42193</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="D64" s="3">
+        <v>500</v>
+      </c>
+      <c r="E64" s="3">
+        <v>725</v>
+      </c>
+      <c r="F64" s="6">
         <f>E64-D64</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="6:6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="9">
+        <v>42197</v>
+      </c>
+      <c r="D65" s="3">
+        <v>500</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
       <c r="F65" s="7">
         <f>E65-D65</f>
-        <v>0</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="66" spans="6:6">
